--- a/FPOO/Java/aula2_verde/workspace/Alunos/excel/Alunos2.xlsx
+++ b/FPOO/Java/aula2_verde/workspace/Alunos/excel/Alunos2.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25813"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/645ba0ac008cf914/Área de Trabalho/SENAI/Diretorios/desenvolvimento-de-sistemas/FPOO/Java/aula2_verde/workspace/Alunos/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{9EC48A59-B07A-49F1-AA0B-B5B76BDD9507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F95A07C0-759F-4F97-853F-88672F9F133A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AB907FC3-A220-4767-8895-1B821E3F2131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DADE7608-2D16-42D9-A956-BFD529A96644}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DADE7608-2D16-42D9-A956-BFD529A96644}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +19,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -478,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79242D80-EF7F-42EF-AEF3-9D34C9D72729}">
-  <dimension ref="D1:K5"/>
+  <dimension ref="D1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +497,7 @@
     <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
@@ -552,7 +551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
@@ -580,7 +579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
@@ -608,7 +607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
@@ -636,6 +635,16 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="4:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="4:17" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="4:17" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="4:17" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="4:17" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="4:17" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="4:17" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="4:17" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="4:17" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
